--- a/Deliverables/fase1/v4-ASVS-checklist-en.xlsx
+++ b/Deliverables/fase1/v4-ASVS-checklist-en.xlsx
@@ -5,24 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ASVS Results" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Architecture, Design and Threat" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Authentication" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Session Management" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Access Control" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Validation, Sanitization and En" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Stored Cryptography" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Error Handling and Logging" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Data Protection" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Communication" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Malicious Code" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Business Logic" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Files and Resources" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="API and Web Service" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Configuration" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="ASVS Results" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Architecture, Design and Threat" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Authentication" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Session Management" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Access Control" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Validation, Sanitization and En" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Stored Cryptography" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Error Handling and Logging" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Data Protection" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Communication" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Malicious Code" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="Business Logic" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="Files and Resources" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="API and Web Service" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="Configuration" sheetId="15" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="690">
   <si>
     <t xml:space="preserve">Security Category</t>
   </si>
@@ -141,10 +141,16 @@
     <t xml:space="preserve">Verify the use of threat modeling for every design change or sprint planning to identify threats, plan for countermeasures, facilitate appropriate risk responses, and guide security testing.</t>
   </si>
   <si>
+    <t xml:space="preserve">Threat Dragon</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.1.3</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that all user stories and features contain functional security constraints, such as "As a user, I should be able to view and edit my profile. I should not be able to view or edit anyone else's profile"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-valid</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.4</t>
@@ -2136,11 +2142,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00,_€;\-#,##0.00,_€"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ ;\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00,_€;\-#,##0.00,_€"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ ;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -2478,6 +2483,21 @@
       <left style="thin">
         <color rgb="FFBCCCDC"/>
       </left>
+      <right style="thin">
+        <color rgb="FFBCCCDC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF243B53"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBCCCDC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFBCCCDC"/>
+      </left>
       <right style="medium">
         <color rgb="FF243B53"/>
       </right>
@@ -2601,21 +2621,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color rgb="FFBCCCDC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF243B53"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFBCCCDC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFBCCCDC"/>
-      </left>
       <right style="thin">
         <color rgb="FFBCCCDC"/>
       </right>
@@ -2923,487 +2928,487 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3479,7 +3484,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3491,18 +3496,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1800" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Validity Percentage</a:t>
@@ -3513,7 +3517,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3549,20 +3553,21 @@
               </a:gsLst>
               <a:lin ang="16200000"/>
             </a:gradFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
@@ -3575,6 +3580,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3633,10 +3643,10 @@
             <c:numRef>
               <c:f>'ASVS Results'!$D$2:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00,_€;\-#,##0.00,_€</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>76.9230769230769</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3678,19 +3688,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>10.7913669064748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="17923522"/>
-        <c:axId val="74048637"/>
+        <c:axId val="82443146"/>
+        <c:axId val="95094904"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="17923522"/>
+        <c:axId val="82443146"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3704,7 +3714,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3718,16 +3728,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74048637"/>
+        <c:crossAx val="95094904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3735,7 +3746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74048637"/>
+        <c:axId val="95094904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,16 +3779,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17923522"/>
+        <c:crossAx val="82443146"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3785,7 +3797,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3795,7 +3807,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3804,10 +3816,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
@@ -3838,13 +3851,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>243720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1719000</xdr:colOff>
+      <xdr:colOff>1718640</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>242280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3852,8 +3865,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="4510440"/>
-        <a:ext cx="11146680" cy="9333720"/>
+        <a:off x="0" y="4510800"/>
+        <a:ext cx="11136240" cy="9333360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3866,15 +3879,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3887,7 +4006,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="2" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3910,7 +4029,7 @@
       </c>
       <c r="B2" s="7" t="n">
         <f aca="false">0+COUNTIF('Architecture, Design and Threat'!G2:G45,"Valid")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8" t="n">
         <f aca="false">COUNTIF('Architecture, Design and Threat'!G2:G45,"&lt;&gt;Not Applicable")</f>
@@ -3918,7 +4037,7 @@
       </c>
       <c r="D2" s="9" t="n">
         <f aca="false">(B2/C2)*100</f>
-        <v>0</v>
+        <v>76.9230769230769</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -3976,7 +4095,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -3994,7 +4113,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -4013,7 +4132,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -4163,7 +4282,7 @@
       </c>
       <c r="B16" s="7" t="n">
         <f aca="false">SUM(B2:B15)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8" t="n">
         <f aca="false">SUM(C2:C15)</f>
@@ -4171,14 +4290,14 @@
       </c>
       <c r="D16" s="9" t="n">
         <f aca="false">(B16/C16)*100</f>
-        <v>0</v>
+        <v>10.7913669064748</v>
       </c>
       <c r="E16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4188,22 +4307,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="37.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="37.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="60" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="88.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="88.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="26.29"/>
@@ -4211,7 +4330,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="44" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -4244,31 +4363,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>505</v>
+      <c r="A2" s="45" t="s">
+        <v>507</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="n">
+      <c r="D2" s="49" t="n">
         <v>319</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>507</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+        <v>509</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
       <c r="B3" s="63" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -4278,17 +4397,17 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="63" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -4298,19 +4417,19 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>512</v>
+      <c r="A5" s="45" t="s">
+        <v>514</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>2</v>
@@ -4320,17 +4439,17 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
       <c r="B6" s="63" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>2</v>
@@ -4340,17 +4459,17 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45"/>
       <c r="B7" s="63" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C7" s="69" t="n">
         <v>2</v>
@@ -4360,17 +4479,17 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
       <c r="B8" s="63" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C8" s="69" t="n">
         <v>2</v>
@@ -4380,32 +4499,32 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
       <c r="B9" s="63" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C9" s="96" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="34" t="n">
+      <c r="D9" s="35" t="n">
         <v>544</v>
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="82" t="s">
-        <v>522</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="37"/>
+        <v>524</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4413,14 +4532,14 @@
     <mergeCell ref="A5:A9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G9" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G9" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4429,7 +4548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4444,15 +4563,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="31.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="60" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="88.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="88.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="26.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="28.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="44" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="97" t="s">
         <v>20</v>
       </c>
@@ -4484,34 +4603,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>523</v>
+    <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45" t="s">
+        <v>525</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C2" s="98" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="48" t="n">
+      <c r="D2" s="49" t="n">
         <v>749</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>525</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+        <v>527</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="66"/>
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>526</v>
+      <c r="A3" s="45" t="s">
+        <v>528</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C3" s="69" t="n">
         <v>2</v>
@@ -4521,17 +4640,17 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="63" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>2</v>
@@ -4541,17 +4660,17 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
       <c r="B5" s="63" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C5" s="70" t="n">
         <v>3</v>
@@ -4561,17 +4680,17 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
       <c r="B6" s="63" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C6" s="70" t="n">
         <v>3</v>
@@ -4581,17 +4700,17 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45"/>
       <c r="B7" s="63" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C7" s="70" t="n">
         <v>3</v>
@@ -4601,17 +4720,17 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
       <c r="B8" s="63" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C8" s="70" t="n">
         <v>3</v>
@@ -4621,19 +4740,19 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
-        <v>539</v>
+      <c r="A9" s="45" t="s">
+        <v>541</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -4643,17 +4762,17 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
       <c r="B10" s="63" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>1</v>
@@ -4663,32 +4782,32 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
       <c r="B11" s="63" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C11" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="34" t="n">
+      <c r="D11" s="35" t="n">
         <v>350</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="82" t="s">
-        <v>545</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="37"/>
+        <v>547</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4696,14 +4815,14 @@
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G11" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G11" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4712,7 +4831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4728,14 +4847,14 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="60" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="71.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="17.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="34.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="34.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="36.99"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="44" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -4768,31 +4887,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>546</v>
+      <c r="A2" s="45" t="s">
+        <v>548</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="n">
+      <c r="D2" s="49" t="n">
         <v>841</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>548</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+        <v>550</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
       <c r="B3" s="63" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -4802,17 +4921,17 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="63" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -4822,17 +4941,17 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
       <c r="B5" s="63" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>1</v>
@@ -4842,17 +4961,17 @@
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="81" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
       <c r="B6" s="63" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C6" s="67" t="n">
         <v>1</v>
@@ -4862,17 +4981,17 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="81" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="63" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C7" s="69" t="n">
         <v>2</v>
@@ -4882,17 +5001,17 @@
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="81" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="63" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C8" s="69" t="n">
         <v>2</v>
@@ -4902,46 +5021,46 @@
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="81" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
       <c r="B9" s="63" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C9" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="34" t="n">
+      <c r="D9" s="35" t="n">
         <v>390</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="82" t="s">
-        <v>562</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="37"/>
+        <v>564</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G9" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G9" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4950,7 +5069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4968,12 +5087,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="78.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="26.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="26.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="31.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="44" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -5006,31 +5125,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>563</v>
+      <c r="A2" s="45" t="s">
+        <v>565</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="n">
+      <c r="D2" s="49" t="n">
         <v>400</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>565</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+        <v>567</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
       <c r="B3" s="63" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C3" s="69" t="n">
         <v>2</v>
@@ -5040,17 +5159,17 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="63" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>2</v>
@@ -5060,19 +5179,19 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>570</v>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45" t="s">
+        <v>572</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>2</v>
@@ -5082,19 +5201,19 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>573</v>
+      <c r="A6" s="45" t="s">
+        <v>575</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C6" s="67" t="n">
         <v>1</v>
@@ -5104,17 +5223,17 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45"/>
       <c r="B7" s="63" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>1</v>
@@ -5124,17 +5243,17 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
       <c r="B8" s="63" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -5144,17 +5263,17 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
       <c r="B9" s="63" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -5164,17 +5283,17 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
       <c r="B10" s="63" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>1</v>
@@ -5184,17 +5303,17 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
       <c r="B11" s="63" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C11" s="69" t="n">
         <v>2</v>
@@ -5204,19 +5323,19 @@
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="81" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
-        <v>586</v>
+      <c r="A12" s="45" t="s">
+        <v>588</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C12" s="67" t="n">
         <v>1</v>
@@ -5226,17 +5345,17 @@
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="81" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="45"/>
       <c r="B13" s="63" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C13" s="67" t="n">
         <v>1</v>
@@ -5246,19 +5365,19 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="81" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
-        <v>591</v>
+      <c r="A14" s="45" t="s">
+        <v>593</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C14" s="67" t="n">
         <v>1</v>
@@ -5268,17 +5387,17 @@
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="81" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="45"/>
       <c r="B15" s="63" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C15" s="67" t="n">
         <v>1</v>
@@ -5288,34 +5407,34 @@
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="81" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
-        <v>596</v>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="45" t="s">
+        <v>598</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C16" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="34" t="n">
+      <c r="D16" s="35" t="n">
         <v>918</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="82" t="s">
-        <v>598</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="37"/>
+        <v>600</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5325,14 +5444,14 @@
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G16" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G16" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5341,7 +5460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5355,15 +5474,15 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="25" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="84.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="84.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="17.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="35.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="35.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="37.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="44" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -5396,31 +5515,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>599</v>
+      <c r="A2" s="45" t="s">
+        <v>601</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="n">
+      <c r="D2" s="49" t="n">
         <v>116</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>601</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+        <v>603</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
+    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
       <c r="B3" s="63" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -5430,19 +5549,19 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="63" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -5452,17 +5571,17 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
       <c r="B5" s="63" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>2</v>
@@ -5472,17 +5591,17 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
       <c r="B6" s="63" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>2</v>
@@ -5492,19 +5611,19 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>610</v>
+      <c r="A7" s="45" t="s">
+        <v>612</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>1</v>
@@ -5514,17 +5633,17 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
       <c r="B8" s="63" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -5534,17 +5653,17 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
       <c r="B9" s="63" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -5554,17 +5673,17 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
       <c r="B10" s="63" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C10" s="69" t="n">
         <v>2</v>
@@ -5574,19 +5693,19 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
       <c r="B11" s="63" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C11" s="69" t="n">
         <v>2</v>
@@ -5596,17 +5715,17 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45"/>
       <c r="B12" s="63" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C12" s="69" t="n">
         <v>2</v>
@@ -5616,19 +5735,19 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
-        <v>623</v>
+      <c r="A13" s="45" t="s">
+        <v>625</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C13" s="67" t="n">
         <v>1</v>
@@ -5638,17 +5757,17 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="45"/>
       <c r="B14" s="63" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C14" s="69" t="n">
         <v>2</v>
@@ -5658,19 +5777,19 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="s">
-        <v>628</v>
+      <c r="A15" s="45" t="s">
+        <v>630</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C15" s="69" t="n">
         <v>2</v>
@@ -5680,32 +5799,32 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="45"/>
       <c r="B16" s="63" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C16" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="D16" s="34" t="n">
+      <c r="D16" s="35" t="n">
         <v>285</v>
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="82" t="s">
-        <v>632</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="37"/>
+        <v>634</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5715,14 +5834,14 @@
     <mergeCell ref="A15:A16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G16" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G16" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5731,13 +5850,13 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -5754,7 +5873,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="44" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="99" t="s">
         <v>20</v>
       </c>
@@ -5788,10 +5907,10 @@
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="100" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C2" s="102" t="n">
         <v>2</v>
@@ -5799,17 +5918,17 @@
       <c r="D2" s="103"/>
       <c r="E2" s="104"/>
       <c r="F2" s="105" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G2" s="106"/>
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
       <c r="J2" s="107"/>
     </row>
-    <row r="3" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="100"/>
       <c r="B3" s="63" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C3" s="108" t="n">
         <v>2</v>
@@ -5819,17 +5938,17 @@
       </c>
       <c r="E3" s="110"/>
       <c r="F3" s="111" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G3" s="112"/>
       <c r="H3" s="112"/>
       <c r="I3" s="112"/>
       <c r="J3" s="113"/>
     </row>
-    <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="100"/>
       <c r="B4" s="63" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C4" s="108" t="n">
         <v>2</v>
@@ -5839,17 +5958,17 @@
       </c>
       <c r="E4" s="110"/>
       <c r="F4" s="111" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
       <c r="I4" s="112"/>
       <c r="J4" s="113"/>
     </row>
-    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="100"/>
       <c r="B5" s="63" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C5" s="108" t="n">
         <v>2</v>
@@ -5857,17 +5976,17 @@
       <c r="D5" s="109"/>
       <c r="E5" s="110"/>
       <c r="F5" s="111" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="113"/>
     </row>
-    <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="100"/>
       <c r="B6" s="63" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C6" s="114" t="n">
         <v>3</v>
@@ -5875,7 +5994,7 @@
       <c r="D6" s="109"/>
       <c r="E6" s="110"/>
       <c r="F6" s="111" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G6" s="112"/>
       <c r="H6" s="112"/>
@@ -5883,11 +6002,11 @@
       <c r="J6" s="113"/>
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>644</v>
+      <c r="A7" s="45" t="s">
+        <v>646</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C7" s="115" t="n">
         <v>1</v>
@@ -5897,17 +6016,17 @@
       </c>
       <c r="E7" s="110"/>
       <c r="F7" s="111" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G7" s="112"/>
       <c r="H7" s="112"/>
       <c r="I7" s="112"/>
       <c r="J7" s="113"/>
     </row>
-    <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
       <c r="B8" s="63" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C8" s="115" t="n">
         <v>1</v>
@@ -5917,17 +6036,17 @@
       </c>
       <c r="E8" s="110"/>
       <c r="F8" s="111" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G8" s="112"/>
       <c r="H8" s="112"/>
       <c r="I8" s="112"/>
       <c r="J8" s="113"/>
     </row>
-    <row r="9" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
       <c r="B9" s="63" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C9" s="115" t="n">
         <v>1</v>
@@ -5937,17 +6056,17 @@
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="111" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G9" s="112"/>
       <c r="H9" s="112"/>
       <c r="I9" s="112"/>
       <c r="J9" s="113"/>
     </row>
-    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
       <c r="B10" s="63" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C10" s="108" t="n">
         <v>2</v>
@@ -5957,17 +6076,17 @@
       </c>
       <c r="E10" s="110"/>
       <c r="F10" s="111" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G10" s="112"/>
       <c r="H10" s="112"/>
       <c r="I10" s="112"/>
       <c r="J10" s="113"/>
     </row>
-    <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
+    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
       <c r="B11" s="63" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C11" s="108" t="n">
         <v>2</v>
@@ -5975,17 +6094,17 @@
       <c r="D11" s="109"/>
       <c r="E11" s="110"/>
       <c r="F11" s="111" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G11" s="112"/>
       <c r="H11" s="112"/>
       <c r="I11" s="112"/>
       <c r="J11" s="113"/>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
+    <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45"/>
       <c r="B12" s="63" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C12" s="108" t="n">
         <v>2</v>
@@ -5995,7 +6114,7 @@
       </c>
       <c r="E12" s="110"/>
       <c r="F12" s="111" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G12" s="112"/>
       <c r="H12" s="112"/>
@@ -6003,11 +6122,11 @@
       <c r="J12" s="113"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
-        <v>657</v>
+      <c r="A13" s="45" t="s">
+        <v>659</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C13" s="115" t="n">
         <v>1</v>
@@ -6017,19 +6136,19 @@
       </c>
       <c r="E13" s="110"/>
       <c r="F13" s="111" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G13" s="112" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H13" s="112"/>
       <c r="I13" s="112"/>
       <c r="J13" s="113"/>
     </row>
-    <row r="14" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
+    <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="45"/>
       <c r="B14" s="63" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C14" s="115" t="n">
         <v>1</v>
@@ -6039,17 +6158,17 @@
       </c>
       <c r="E14" s="110"/>
       <c r="F14" s="111" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G14" s="112"/>
       <c r="H14" s="112"/>
       <c r="I14" s="112"/>
       <c r="J14" s="113"/>
     </row>
-    <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44"/>
+    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="45"/>
       <c r="B15" s="63" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C15" s="115" t="n">
         <v>1</v>
@@ -6059,7 +6178,7 @@
       </c>
       <c r="E15" s="110"/>
       <c r="F15" s="111" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G15" s="112"/>
       <c r="H15" s="112"/>
@@ -6067,11 +6186,11 @@
       <c r="J15" s="113"/>
     </row>
     <row r="16" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
-        <v>664</v>
+      <c r="A16" s="45" t="s">
+        <v>666</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C16" s="115" t="n">
         <v>1</v>
@@ -6081,17 +6200,17 @@
       </c>
       <c r="E16" s="110"/>
       <c r="F16" s="111" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G16" s="112"/>
       <c r="H16" s="112"/>
       <c r="I16" s="112"/>
       <c r="J16" s="113"/>
     </row>
-    <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44"/>
+    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="45"/>
       <c r="B17" s="63" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C17" s="115" t="n">
         <v>1</v>
@@ -6101,17 +6220,17 @@
       </c>
       <c r="E17" s="110"/>
       <c r="F17" s="111" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G17" s="112"/>
       <c r="H17" s="112"/>
       <c r="I17" s="112"/>
       <c r="J17" s="113"/>
     </row>
-    <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44"/>
+    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="45"/>
       <c r="B18" s="63" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C18" s="115" t="n">
         <v>1</v>
@@ -6121,17 +6240,17 @@
       </c>
       <c r="E18" s="110"/>
       <c r="F18" s="111" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G18" s="112"/>
       <c r="H18" s="112"/>
       <c r="I18" s="112"/>
       <c r="J18" s="113"/>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44"/>
+    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="45"/>
       <c r="B19" s="63" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C19" s="115" t="n">
         <v>1</v>
@@ -6141,17 +6260,17 @@
       </c>
       <c r="E19" s="110"/>
       <c r="F19" s="111" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G19" s="112"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
       <c r="J19" s="113"/>
     </row>
-    <row r="20" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44"/>
+    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="45"/>
       <c r="B20" s="63" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C20" s="115" t="n">
         <v>1</v>
@@ -6161,17 +6280,17 @@
       </c>
       <c r="E20" s="110"/>
       <c r="F20" s="111" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G20" s="112"/>
       <c r="H20" s="112"/>
       <c r="I20" s="112"/>
       <c r="J20" s="113"/>
     </row>
-    <row r="21" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44"/>
+    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="45"/>
       <c r="B21" s="63" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C21" s="115" t="n">
         <v>1</v>
@@ -6181,17 +6300,17 @@
       </c>
       <c r="E21" s="110"/>
       <c r="F21" s="111" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G21" s="112"/>
       <c r="H21" s="112"/>
       <c r="I21" s="112"/>
       <c r="J21" s="113"/>
     </row>
-    <row r="22" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44"/>
+    <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="45"/>
       <c r="B22" s="63" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C22" s="115" t="n">
         <v>1</v>
@@ -6201,7 +6320,7 @@
       </c>
       <c r="E22" s="110"/>
       <c r="F22" s="111" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G22" s="112"/>
       <c r="H22" s="112"/>
@@ -6209,11 +6328,11 @@
       <c r="J22" s="113"/>
     </row>
     <row r="23" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44" t="s">
-        <v>679</v>
+      <c r="A23" s="45" t="s">
+        <v>681</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C23" s="115" t="n">
         <v>1</v>
@@ -6223,17 +6342,17 @@
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G23" s="112"/>
       <c r="H23" s="112"/>
       <c r="I23" s="112"/>
       <c r="J23" s="113"/>
     </row>
-    <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44"/>
+    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="45"/>
       <c r="B24" s="63" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C24" s="115" t="n">
         <v>1</v>
@@ -6243,17 +6362,17 @@
       </c>
       <c r="E24" s="110"/>
       <c r="F24" s="111" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G24" s="112"/>
       <c r="H24" s="112"/>
       <c r="I24" s="112"/>
       <c r="J24" s="113"/>
     </row>
-    <row r="25" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44"/>
+    <row r="25" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="45"/>
       <c r="B25" s="63" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C25" s="115" t="n">
         <v>1</v>
@@ -6263,17 +6382,17 @@
       </c>
       <c r="E25" s="110"/>
       <c r="F25" s="111" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G25" s="112"/>
       <c r="H25" s="112"/>
       <c r="I25" s="112"/>
       <c r="J25" s="113"/>
     </row>
-    <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44"/>
+    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="45"/>
       <c r="B26" s="63" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C26" s="116" t="n">
         <v>2</v>
@@ -6283,7 +6402,7 @@
       </c>
       <c r="E26" s="118"/>
       <c r="F26" s="119" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G26" s="120"/>
       <c r="H26" s="120"/>
@@ -6299,14 +6418,14 @@
     <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G26" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G26" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6315,14 +6434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6339,7 +6458,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="13" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
@@ -6391,7 +6510,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="25" customFormat="true" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17"/>
       <c r="B3" s="18" t="s">
         <v>33</v>
@@ -6406,15 +6525,19 @@
       <c r="F3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" s="25" customFormat="true" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="26" t="n">
         <v>2</v>
@@ -6424,17 +6547,19 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="26" t="n">
         <v>2</v>
@@ -6444,17 +6569,19 @@
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" s="25" customFormat="true" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>2</v>
@@ -6464,17 +6591,19 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" s="25" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>2</v>
@@ -6484,17 +6613,19 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" s="25" customFormat="true" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>2</v>
@@ -6504,19 +6635,21 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
+        <v>46</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>2</v>
@@ -6526,17 +6659,19 @@
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" s="25" customFormat="true" ht="60.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17"/>
       <c r="B10" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="26" t="n">
         <v>2</v>
@@ -6546,17 +6681,19 @@
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" s="25" customFormat="true" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="26" t="n">
         <v>2</v>
@@ -6566,17 +6703,19 @@
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" s="25" customFormat="true" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="26" t="n">
         <v>2</v>
@@ -6586,37 +6725,39 @@
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" s="25" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
       <c r="F13" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+        <v>58</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="26" t="n">
         <v>2</v>
@@ -6626,17 +6767,19 @@
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" s="25" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" s="26" t="n">
         <v>2</v>
@@ -6646,19 +6789,19 @@
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" s="25" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17"/>
       <c r="B16" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="26" t="n">
         <v>2</v>
@@ -6668,19 +6811,19 @@
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" s="25" customFormat="true" ht="72.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" s="26" t="n">
         <v>2</v>
@@ -6690,17 +6833,19 @@
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" s="25" customFormat="true" ht="60.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17"/>
       <c r="B18" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" s="26" t="n">
         <v>2</v>
@@ -6710,19 +6855,21 @@
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="32"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" s="26" t="n">
         <v>2</v>
@@ -6732,17 +6879,19 @@
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="28"/>
+        <v>72</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" s="25" customFormat="true" ht="60.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>2</v>
@@ -6752,17 +6901,19 @@
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" s="25" customFormat="true" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>2</v>
@@ -6772,17 +6923,19 @@
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" s="25" customFormat="true" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>2</v>
@@ -6792,19 +6945,21 @@
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="28"/>
+        <v>78</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="32"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>2</v>
@@ -6814,17 +6969,19 @@
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="28"/>
+        <v>81</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>2</v>
@@ -6834,17 +6991,19 @@
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="28"/>
+        <v>83</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" s="25" customFormat="true" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
       <c r="B25" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>2</v>
@@ -6854,17 +7013,19 @@
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="28"/>
+        <v>85</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" s="25" customFormat="true" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
       <c r="B26" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>2</v>
@@ -6873,20 +7034,22 @@
         <v>320</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="28"/>
+      <c r="F26" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="32"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="26" t="n">
         <v>2</v>
@@ -6896,17 +7059,19 @@
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="28"/>
+        <v>90</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="28" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" s="25" customFormat="true" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
       <c r="B28" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C28" s="26" t="n">
         <v>2</v>
@@ -6914,19 +7079,21 @@
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
       <c r="F28" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="28"/>
+        <v>92</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="32"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C29" s="26" t="n">
         <v>2</v>
@@ -6934,17 +7101,19 @@
       <c r="D29" s="27"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="28"/>
+        <v>95</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" s="25" customFormat="true" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C30" s="26" t="n">
         <v>2</v>
@@ -6952,19 +7121,21 @@
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="32"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C31" s="26" t="n">
         <v>2</v>
@@ -6974,17 +7145,19 @@
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="33"/>
+    </row>
+    <row r="32" s="25" customFormat="true" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17"/>
       <c r="B32" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C32" s="26" t="n">
         <v>2</v>
@@ -6994,19 +7167,21 @@
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" s="25" customFormat="true" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C33" s="26" t="n">
         <v>2</v>
@@ -7016,19 +7191,21 @@
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="28"/>
+        <v>105</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="32"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C34" s="26" t="n">
         <v>2</v>
@@ -7038,17 +7215,19 @@
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="28"/>
+        <v>108</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" s="25" customFormat="true" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
       <c r="B35" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C35" s="26" t="n">
         <v>2</v>
@@ -7058,17 +7237,19 @@
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="28"/>
+        <v>110</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="32"/>
-    </row>
-    <row r="36" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="33"/>
+    </row>
+    <row r="36" s="25" customFormat="true" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
       <c r="B36" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C36" s="26" t="n">
         <v>2</v>
@@ -7078,19 +7259,21 @@
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="28"/>
+        <v>112</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="32"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C37" s="26" t="n">
         <v>2</v>
@@ -7100,19 +7283,19 @@
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="32"/>
-    </row>
-    <row r="38" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" s="25" customFormat="true" ht="72.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
       <c r="B38" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="26" t="n">
         <v>2</v>
@@ -7122,37 +7305,39 @@
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="28"/>
+        <v>117</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" s="25" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" s="25" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27"/>
       <c r="E39" s="28"/>
       <c r="F39" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="32"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" s="25" customFormat="true" ht="58.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C40" s="26" t="n">
         <v>2</v>
@@ -7162,17 +7347,17 @@
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="28"/>
+        <v>121</v>
+      </c>
+      <c r="G40" s="30"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="32"/>
-    </row>
-    <row r="41" s="25" customFormat="true" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" s="25" customFormat="true" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17"/>
       <c r="B41" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C41" s="26" t="n">
         <v>2</v>
@@ -7182,17 +7367,17 @@
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="28"/>
+        <v>123</v>
+      </c>
+      <c r="G41" s="30"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" s="25" customFormat="true" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" s="25" customFormat="true" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
       <c r="B42" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C42" s="26" t="n">
         <v>2</v>
@@ -7202,17 +7387,17 @@
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="28"/>
+        <v>125</v>
+      </c>
+      <c r="G42" s="30"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" s="25" customFormat="true" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" s="25" customFormat="true" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17"/>
       <c r="B43" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C43" s="26" t="n">
         <v>2</v>
@@ -7220,17 +7405,17 @@
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
       <c r="F43" s="29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" s="25" customFormat="true" ht="100.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" s="25" customFormat="true" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="17"/>
       <c r="B44" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C44" s="26" t="n">
         <v>2</v>
@@ -7240,32 +7425,32 @@
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="32"/>
-    </row>
-    <row r="45" s="25" customFormat="true" ht="58.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="D45" s="34" t="n">
+        <v>130</v>
+      </c>
+      <c r="C45" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" s="35" t="n">
         <v>477</v>
       </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="37"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7282,14 +7467,14 @@
     <mergeCell ref="A40:A45"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G45" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G45" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7298,7 +7483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7311,9 +7496,9 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="14.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="39" width="8.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="14.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="40" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="13" width="73.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="13" width="25.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="13" width="30.28"/>
@@ -7322,66 +7507,66 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="13" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="44" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47" t="n">
+      <c r="A2" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="48" t="n">
         <v>521</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="50"/>
+      <c r="E2" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="30"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="J2" s="52"/>
     </row>
-    <row r="3" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45" t="s">
-        <v>134</v>
+    <row r="3" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="53" t="n">
         <v>1</v>
@@ -7390,20 +7575,20 @@
         <v>521</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G3" s="28"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45" t="s">
-        <v>136</v>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="C4" s="53" t="n">
         <v>1</v>
@@ -7412,20 +7597,20 @@
         <v>521</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G4" s="28"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45" t="s">
-        <v>138</v>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="C5" s="53" t="n">
         <v>1</v>
@@ -7434,20 +7619,20 @@
         <v>521</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45" t="s">
-        <v>140</v>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" s="25" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46" t="s">
+        <v>142</v>
       </c>
       <c r="C6" s="53" t="n">
         <v>1</v>
@@ -7456,20 +7641,20 @@
         <v>620</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G6" s="28"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45" t="s">
-        <v>142</v>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="C7" s="53" t="n">
         <v>1</v>
@@ -7478,20 +7663,20 @@
         <v>620</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G7" s="28"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" s="25" customFormat="true" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45" t="s">
-        <v>144</v>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" s="25" customFormat="true" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="C8" s="53" t="n">
         <v>1</v>
@@ -7500,20 +7685,20 @@
         <v>521</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G8" s="28"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45" t="s">
-        <v>146</v>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46" t="s">
+        <v>148</v>
       </c>
       <c r="C9" s="53" t="n">
         <v>1</v>
@@ -7522,20 +7707,20 @@
         <v>521</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G9" s="28"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45" t="s">
-        <v>148</v>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" s="25" customFormat="true" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46" t="s">
+        <v>150</v>
       </c>
       <c r="C10" s="53" t="n">
         <v>1</v>
@@ -7544,20 +7729,20 @@
         <v>521</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45" t="s">
-        <v>150</v>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46" t="s">
+        <v>152</v>
       </c>
       <c r="C11" s="53" t="n">
         <v>1</v>
@@ -7566,20 +7751,20 @@
         <v>263</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G11" s="28"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45" t="s">
-        <v>152</v>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46" t="s">
+        <v>154</v>
       </c>
       <c r="C12" s="53" t="n">
         <v>1</v>
@@ -7588,20 +7773,20 @@
         <v>521</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G12" s="28"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45" t="s">
-        <v>154</v>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="53" t="n">
         <v>1</v>
@@ -7610,22 +7795,22 @@
         <v>521</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G13" s="28"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" s="25" customFormat="true" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>157</v>
+      <c r="A14" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>159</v>
       </c>
       <c r="C14" s="53" t="n">
         <v>1</v>
@@ -7634,20 +7819,20 @@
         <v>307</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45" t="s">
-        <v>160</v>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" s="25" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46" t="s">
+        <v>162</v>
       </c>
       <c r="C15" s="53" t="n">
         <v>1</v>
@@ -7656,20 +7841,20 @@
         <v>304</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G15" s="28"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45" t="s">
-        <v>163</v>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" s="25" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46" t="s">
+        <v>165</v>
       </c>
       <c r="C16" s="53" t="n">
         <v>1</v>
@@ -7679,17 +7864,17 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G16" s="28"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45" t="s">
-        <v>165</v>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="55" t="n">
         <v>3</v>
@@ -7698,20 +7883,20 @@
         <v>308</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G17" s="28"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
-        <v>168</v>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46" t="s">
+        <v>170</v>
       </c>
       <c r="C18" s="55" t="n">
         <v>3</v>
@@ -7720,20 +7905,20 @@
         <v>319</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G18" s="28"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" s="25" customFormat="true" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45" t="s">
-        <v>171</v>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46" t="s">
+        <v>173</v>
       </c>
       <c r="C19" s="55" t="n">
         <v>3</v>
@@ -7742,20 +7927,20 @@
         <v>308</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" s="25" customFormat="true" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45" t="s">
-        <v>174</v>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46" t="s">
+        <v>176</v>
       </c>
       <c r="C20" s="55" t="n">
         <v>3</v>
@@ -7764,22 +7949,22 @@
         <v>308</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G20" s="28"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>178</v>
+      <c r="A21" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>180</v>
       </c>
       <c r="C21" s="53" t="n">
         <v>1</v>
@@ -7788,20 +7973,20 @@
         <v>330</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G21" s="28"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45" t="s">
-        <v>181</v>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46" t="s">
+        <v>183</v>
       </c>
       <c r="C22" s="56" t="n">
         <v>2</v>
@@ -7810,20 +7995,20 @@
         <v>308</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45" t="s">
-        <v>184</v>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46" t="s">
+        <v>186</v>
       </c>
       <c r="C23" s="56" t="n">
         <v>2</v>
@@ -7832,22 +8017,22 @@
         <v>287</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>188</v>
+      <c r="A24" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>190</v>
       </c>
       <c r="C24" s="56" t="n">
         <v>2</v>
@@ -7856,20 +8041,20 @@
         <v>916</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45" t="s">
-        <v>190</v>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" s="25" customFormat="true" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="C25" s="56" t="n">
         <v>2</v>
@@ -7878,20 +8063,20 @@
         <v>916</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45" t="s">
-        <v>192</v>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46" t="s">
+        <v>194</v>
       </c>
       <c r="C26" s="56" t="n">
         <v>2</v>
@@ -7900,20 +8085,20 @@
         <v>916</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45" t="s">
-        <v>194</v>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="C27" s="56" t="n">
         <v>2</v>
@@ -7922,20 +8107,20 @@
         <v>916</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G27" s="28"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" s="25" customFormat="true" ht="111" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45" t="s">
-        <v>196</v>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" s="25" customFormat="true" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46" t="s">
+        <v>198</v>
       </c>
       <c r="C28" s="56" t="n">
         <v>2</v>
@@ -7944,22 +8129,22 @@
         <v>916</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="32"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>199</v>
+      <c r="A29" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>201</v>
       </c>
       <c r="C29" s="53" t="n">
         <v>1</v>
@@ -7968,20 +8153,20 @@
         <v>640</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45" t="s">
-        <v>201</v>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46" t="s">
+        <v>203</v>
       </c>
       <c r="C30" s="53" t="n">
         <v>1</v>
@@ -7990,20 +8175,20 @@
         <v>640</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45" t="s">
-        <v>203</v>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="C31" s="53" t="n">
         <v>1</v>
@@ -8012,20 +8197,20 @@
         <v>640</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45" t="s">
-        <v>205</v>
+      <c r="J31" s="33"/>
+    </row>
+    <row r="32" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46" t="s">
+        <v>207</v>
       </c>
       <c r="C32" s="53" t="n">
         <v>1</v>
@@ -8034,20 +8219,20 @@
         <v>16</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45" t="s">
-        <v>207</v>
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46" t="s">
+        <v>209</v>
       </c>
       <c r="C33" s="53" t="n">
         <v>1</v>
@@ -8056,20 +8241,20 @@
         <v>304</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45" t="s">
-        <v>210</v>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" s="25" customFormat="true" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="C34" s="53" t="n">
         <v>1</v>
@@ -8078,20 +8263,20 @@
         <v>640</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45" t="s">
-        <v>212</v>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46" t="s">
+        <v>214</v>
       </c>
       <c r="C35" s="56" t="n">
         <v>2</v>
@@ -8100,22 +8285,22 @@
         <v>308</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="32"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>215</v>
+      <c r="A36" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>217</v>
       </c>
       <c r="C36" s="56" t="n">
         <v>2</v>
@@ -8124,20 +8309,20 @@
         <v>308</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45" t="s">
-        <v>218</v>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="45"/>
+      <c r="B37" s="46" t="s">
+        <v>220</v>
       </c>
       <c r="C37" s="56" t="n">
         <v>2</v>
@@ -8146,20 +8331,20 @@
         <v>330</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="32"/>
-    </row>
-    <row r="38" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45" t="s">
-        <v>220</v>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="45"/>
+      <c r="B38" s="46" t="s">
+        <v>222</v>
       </c>
       <c r="C38" s="56" t="n">
         <v>2</v>
@@ -8168,22 +8353,22 @@
         <v>310</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="32"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>223</v>
+      <c r="A39" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>225</v>
       </c>
       <c r="C39" s="53" t="n">
         <v>1</v>
@@ -8192,20 +8377,20 @@
         <v>287</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="32"/>
-    </row>
-    <row r="40" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45" t="s">
-        <v>226</v>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="45"/>
+      <c r="B40" s="46" t="s">
+        <v>228</v>
       </c>
       <c r="C40" s="53" t="n">
         <v>1</v>
@@ -8214,20 +8399,20 @@
         <v>287</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="32"/>
-    </row>
-    <row r="41" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45" t="s">
-        <v>228</v>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46" t="s">
+        <v>230</v>
       </c>
       <c r="C41" s="53" t="n">
         <v>1</v>
@@ -8236,20 +8421,20 @@
         <v>287</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="44"/>
-      <c r="B42" s="45" t="s">
-        <v>230</v>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="45"/>
+      <c r="B42" s="46" t="s">
+        <v>232</v>
       </c>
       <c r="C42" s="53" t="n">
         <v>1</v>
@@ -8258,20 +8443,20 @@
         <v>523</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="44"/>
-      <c r="B43" s="45" t="s">
-        <v>232</v>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="45"/>
+      <c r="B43" s="46" t="s">
+        <v>234</v>
       </c>
       <c r="C43" s="56" t="n">
         <v>2</v>
@@ -8280,20 +8465,20 @@
         <v>256</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45" t="s">
-        <v>234</v>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="45"/>
+      <c r="B44" s="46" t="s">
+        <v>236</v>
       </c>
       <c r="C44" s="56" t="n">
         <v>2</v>
@@ -8302,22 +8487,22 @@
         <v>310</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="32"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>237</v>
+      <c r="A45" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>239</v>
       </c>
       <c r="C45" s="53" t="n">
         <v>1</v>
@@ -8326,20 +8511,20 @@
         <v>613</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="32"/>
-    </row>
-    <row r="46" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="44"/>
-      <c r="B46" s="45" t="s">
-        <v>240</v>
+      <c r="J45" s="33"/>
+    </row>
+    <row r="46" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="45"/>
+      <c r="B46" s="46" t="s">
+        <v>242</v>
       </c>
       <c r="C46" s="56" t="n">
         <v>2</v>
@@ -8348,20 +8533,20 @@
         <v>320</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="32"/>
-    </row>
-    <row r="47" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45" t="s">
-        <v>242</v>
+      <c r="J46" s="33"/>
+    </row>
+    <row r="47" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="45"/>
+      <c r="B47" s="46" t="s">
+        <v>244</v>
       </c>
       <c r="C47" s="56" t="n">
         <v>2</v>
@@ -8370,20 +8555,20 @@
         <v>326</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45" t="s">
-        <v>244</v>
+      <c r="J47" s="33"/>
+    </row>
+    <row r="48" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="45"/>
+      <c r="B48" s="46" t="s">
+        <v>246</v>
       </c>
       <c r="C48" s="56" t="n">
         <v>2</v>
@@ -8392,20 +8577,20 @@
         <v>287</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="32"/>
-    </row>
-    <row r="49" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45" t="s">
-        <v>246</v>
+      <c r="J48" s="33"/>
+    </row>
+    <row r="49" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="45"/>
+      <c r="B49" s="46" t="s">
+        <v>248</v>
       </c>
       <c r="C49" s="56" t="n">
         <v>2</v>
@@ -8414,20 +8599,20 @@
         <v>287</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="32"/>
-    </row>
-    <row r="50" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="44"/>
-      <c r="B50" s="45" t="s">
-        <v>249</v>
+      <c r="J49" s="33"/>
+    </row>
+    <row r="50" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="45"/>
+      <c r="B50" s="46" t="s">
+        <v>251</v>
       </c>
       <c r="C50" s="56" t="n">
         <v>2</v>
@@ -8436,20 +8621,20 @@
         <v>613</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="32"/>
-    </row>
-    <row r="51" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45" t="s">
-        <v>252</v>
+      <c r="J50" s="33"/>
+    </row>
+    <row r="51" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="45"/>
+      <c r="B51" s="46" t="s">
+        <v>254</v>
       </c>
       <c r="C51" s="55" t="n">
         <v>3</v>
@@ -8458,22 +8643,22 @@
         <v>308</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="32"/>
+      <c r="J51" s="33"/>
     </row>
     <row r="52" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>256</v>
+      <c r="A52" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>258</v>
       </c>
       <c r="C52" s="56" t="n">
         <v>2</v>
@@ -8482,20 +8667,20 @@
         <v>320</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45" t="s">
-        <v>259</v>
+      <c r="J52" s="33"/>
+    </row>
+    <row r="53" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="45"/>
+      <c r="B53" s="46" t="s">
+        <v>261</v>
       </c>
       <c r="C53" s="56" t="n">
         <v>2</v>
@@ -8504,20 +8689,20 @@
         <v>330</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="32"/>
-    </row>
-    <row r="54" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45" t="s">
-        <v>261</v>
+      <c r="J53" s="33"/>
+    </row>
+    <row r="54" s="25" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="45"/>
+      <c r="B54" s="46" t="s">
+        <v>263</v>
       </c>
       <c r="C54" s="56" t="n">
         <v>2</v>
@@ -8526,103 +8711,103 @@
         <v>327</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="32"/>
+      <c r="J54" s="33"/>
     </row>
     <row r="55" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>264</v>
+      <c r="A55" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>266</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D55" s="54" t="n">
         <v>287</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="32"/>
-    </row>
-    <row r="56" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="44"/>
-      <c r="B56" s="45" t="s">
-        <v>268</v>
+      <c r="J55" s="33"/>
+    </row>
+    <row r="56" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="45"/>
+      <c r="B56" s="46" t="s">
+        <v>270</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D56" s="54" t="n">
         <v>255</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="44"/>
-      <c r="B57" s="45" t="s">
-        <v>270</v>
+      <c r="J56" s="33"/>
+    </row>
+    <row r="57" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="45"/>
+      <c r="B57" s="46" t="s">
+        <v>272</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D57" s="54" t="n">
         <v>522</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
-      <c r="J57" s="32"/>
-    </row>
-    <row r="58" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="44"/>
-      <c r="B58" s="45" t="s">
-        <v>272</v>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" s="25" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="45"/>
+      <c r="B58" s="46" t="s">
+        <v>274</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D58" s="58" t="n">
         <v>798</v>
       </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="37"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8638,14 +8823,14 @@
     <mergeCell ref="A55:A58"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G58" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G58" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -8654,31 +8839,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="40.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="40.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="60" width="11.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="60" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="70"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="20.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="36.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="36.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="35.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="42.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="44" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="61" t="s">
         <v>20</v>
       </c>
@@ -8710,34 +8895,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>274</v>
+    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45" t="s">
+        <v>276</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="n">
+      <c r="D2" s="48" t="n">
         <v>598</v>
       </c>
       <c r="E2" s="65"/>
-      <c r="F2" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="F2" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="66"/>
     </row>
     <row r="3" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>277</v>
+      <c r="A3" s="45" t="s">
+        <v>279</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -8749,17 +8934,17 @@
         <v>7.1</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="63" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -8771,17 +8956,17 @@
         <v>7.1</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
       <c r="B5" s="63" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>1</v>
@@ -8793,17 +8978,17 @@
         <v>7.1</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
       <c r="B6" s="63" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>2</v>
@@ -8815,19 +9000,19 @@
         <v>7.1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>286</v>
+      <c r="A7" s="45" t="s">
+        <v>288</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>1</v>
@@ -8839,17 +9024,17 @@
         <v>7.1</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="111" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
       <c r="B8" s="63" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -8861,17 +9046,17 @@
         <v>7.2</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
       <c r="B9" s="63" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C9" s="69" t="n">
         <v>2</v>
@@ -8881,17 +9066,17 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="29" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
       <c r="B10" s="63" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C10" s="69" t="n">
         <v>2</v>
@@ -8903,19 +9088,19 @@
         <v>7.1</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
-        <v>295</v>
+      <c r="A11" s="45" t="s">
+        <v>297</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C11" s="67" t="n">
         <v>1</v>
@@ -8924,20 +9109,20 @@
         <v>614</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45"/>
       <c r="B12" s="63" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C12" s="67" t="n">
         <v>1</v>
@@ -8946,20 +9131,20 @@
         <v>1004</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="45"/>
       <c r="B13" s="63" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C13" s="67" t="n">
         <v>1</v>
@@ -8968,20 +9153,20 @@
         <v>16</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="45"/>
       <c r="B14" s="63" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C14" s="67" t="n">
         <v>1</v>
@@ -8990,20 +9175,20 @@
         <v>16</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="45"/>
       <c r="B15" s="63" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C15" s="67" t="n">
         <v>1</v>
@@ -9012,22 +9197,22 @@
         <v>16</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
-        <v>307</v>
+      <c r="A16" s="45" t="s">
+        <v>309</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C16" s="69" t="n">
         <v>2</v>
@@ -9036,20 +9221,20 @@
         <v>290</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="45"/>
       <c r="B17" s="63" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C17" s="69" t="n">
         <v>2</v>
@@ -9059,17 +9244,17 @@
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="29" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="45"/>
       <c r="B18" s="63" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C18" s="69" t="n">
         <v>2</v>
@@ -9079,19 +9264,19 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="32"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44" t="s">
-        <v>315</v>
+      <c r="A19" s="45" t="s">
+        <v>317</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C19" s="70" t="n">
         <v>3</v>
@@ -9100,20 +9285,20 @@
         <v>613</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="45"/>
       <c r="B20" s="63" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C20" s="70" t="n">
         <v>3</v>
@@ -9122,22 +9307,22 @@
         <v>613</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44" t="s">
-        <v>321</v>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="45" t="s">
+        <v>323</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C21" s="71" t="n">
         <v>1</v>
@@ -9146,13 +9331,13 @@
         <v>778</v>
       </c>
       <c r="E21" s="72"/>
-      <c r="F21" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="37"/>
+      <c r="F21" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" s="25" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="59"/>
@@ -9172,14 +9357,14 @@
     <mergeCell ref="A19:A20"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G21" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G21" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -9188,19 +9373,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="38.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="74" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="60" width="12.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="60" width="8.86"/>
@@ -9212,8 +9397,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="77" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="77" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="75" t="s">
@@ -9245,31 +9430,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>324</v>
+      <c r="A2" s="45" t="s">
+        <v>326</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="n">
+      <c r="D2" s="48" t="n">
         <v>602</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
       <c r="B3" s="78" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -9279,17 +9464,17 @@
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="78" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -9299,17 +9484,17 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
       <c r="B5" s="78" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>1</v>
@@ -9319,19 +9504,19 @@
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
       <c r="B6" s="78" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C6" s="67" t="n">
         <v>1</v>
@@ -9341,19 +9526,19 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>334</v>
+      <c r="A7" s="45" t="s">
+        <v>336</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>1</v>
@@ -9363,17 +9548,17 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
       <c r="B8" s="78" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -9383,19 +9568,19 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
-        <v>339</v>
+      <c r="A9" s="45" t="s">
+        <v>341</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -9405,17 +9590,17 @@
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="29" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
       <c r="B10" s="78" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>1</v>
@@ -9425,17 +9610,17 @@
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
       <c r="B11" s="78" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C11" s="79" t="n">
         <v>2</v>
@@ -9443,14 +9628,14 @@
       <c r="D11" s="58" t="n">
         <v>732</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="37"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9459,14 +9644,14 @@
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G11" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G11" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -9475,7 +9660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9498,8 +9683,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="44" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="62" t="s">
@@ -9531,31 +9716,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>346</v>
+      <c r="A2" s="45" t="s">
+        <v>348</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="n">
+      <c r="D2" s="48" t="n">
         <v>235</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+        <v>350</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
+    <row r="3" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
       <c r="B3" s="63" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -9565,17 +9750,17 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="63" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -9585,17 +9770,17 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="111" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
       <c r="B5" s="63" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>1</v>
@@ -9605,17 +9790,17 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
       <c r="B6" s="63" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C6" s="67" t="n">
         <v>1</v>
@@ -9625,19 +9810,19 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>357</v>
+      <c r="A7" s="45" t="s">
+        <v>359</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>1</v>
@@ -9647,17 +9832,17 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
       <c r="B8" s="63" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -9667,17 +9852,17 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
       <c r="B9" s="63" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -9687,17 +9872,17 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
       <c r="B10" s="63" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>1</v>
@@ -9707,17 +9892,17 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
       <c r="B11" s="63" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C11" s="67" t="n">
         <v>1</v>
@@ -9727,17 +9912,17 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45"/>
       <c r="B12" s="63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C12" s="67" t="n">
         <v>1</v>
@@ -9747,17 +9932,17 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="45"/>
       <c r="B13" s="63" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C13" s="67" t="n">
         <v>1</v>
@@ -9767,17 +9952,17 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="45"/>
       <c r="B14" s="63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C14" s="67" t="n">
         <v>1</v>
@@ -9787,19 +9972,19 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="s">
-        <v>369</v>
+      <c r="A15" s="45" t="s">
+        <v>371</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C15" s="67" t="n">
         <v>1</v>
@@ -9809,17 +9994,17 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="45"/>
       <c r="B16" s="63" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C16" s="67" t="n">
         <v>1</v>
@@ -9829,17 +10014,17 @@
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="81" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="45"/>
       <c r="B17" s="63" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C17" s="67" t="n">
         <v>1</v>
@@ -9849,17 +10034,17 @@
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="81" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="45"/>
       <c r="B18" s="63" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C18" s="67" t="n">
         <v>1</v>
@@ -9869,17 +10054,17 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="81" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="45"/>
       <c r="B19" s="63" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C19" s="67" t="n">
         <v>1</v>
@@ -9889,17 +10074,17 @@
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="81" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="45"/>
       <c r="B20" s="63" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C20" s="67" t="n">
         <v>1</v>
@@ -9909,17 +10094,17 @@
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="81" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="45"/>
       <c r="B21" s="63" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C21" s="67" t="n">
         <v>1</v>
@@ -9929,17 +10114,17 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="81" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="45"/>
       <c r="B22" s="63" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C22" s="67" t="n">
         <v>1</v>
@@ -9949,17 +10134,17 @@
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="81" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="45"/>
       <c r="B23" s="63" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C23" s="67" t="n">
         <v>1</v>
@@ -9969,17 +10154,17 @@
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="81" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="45"/>
       <c r="B24" s="63" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C24" s="67" t="n">
         <v>1</v>
@@ -9989,19 +10174,19 @@
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="81" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="32"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44" t="s">
-        <v>390</v>
+      <c r="A25" s="45" t="s">
+        <v>392</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C25" s="69" t="n">
         <v>2</v>
@@ -10011,17 +10196,17 @@
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="81" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44"/>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="45"/>
       <c r="B26" s="63" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C26" s="69" t="n">
         <v>2</v>
@@ -10031,17 +10216,17 @@
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="81" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="44"/>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="45"/>
       <c r="B27" s="63" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C27" s="69" t="n">
         <v>2</v>
@@ -10051,19 +10236,19 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="81" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="32"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="44" t="s">
-        <v>397</v>
+      <c r="A28" s="45" t="s">
+        <v>399</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C28" s="67" t="n">
         <v>1</v>
@@ -10073,17 +10258,17 @@
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="81" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="44"/>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="45"/>
       <c r="B29" s="63" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C29" s="67" t="n">
         <v>1</v>
@@ -10093,17 +10278,17 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="81" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="44"/>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="45"/>
       <c r="B30" s="63" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C30" s="67" t="n">
         <v>1</v>
@@ -10113,17 +10298,17 @@
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="81" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="44"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="45"/>
       <c r="B31" s="63" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C31" s="71" t="n">
         <v>1</v>
@@ -10131,14 +10316,14 @@
       <c r="D31" s="58" t="n">
         <v>95</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="82" t="s">
-        <v>405</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="37"/>
+        <v>407</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10149,14 +10334,14 @@
     <mergeCell ref="A28:A31"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G31" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G31" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -10165,7 +10350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10183,14 +10368,14 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="60" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="97.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="36.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="36.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="27.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="44" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="62" t="s">
@@ -10222,31 +10407,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>406</v>
+      <c r="A2" s="45" t="s">
+        <v>408</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C2" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="47" t="n">
+      <c r="D2" s="48" t="n">
         <v>311</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>408</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+        <v>410</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
       <c r="B3" s="63" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C3" s="69" t="n">
         <v>2</v>
@@ -10256,17 +10441,17 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>2</v>
@@ -10276,19 +10461,19 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>412</v>
+      <c r="A5" s="45" t="s">
+        <v>414</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>1</v>
@@ -10298,17 +10483,17 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
       <c r="B6" s="63" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>2</v>
@@ -10318,17 +10503,17 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45"/>
       <c r="B7" s="63" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C7" s="69" t="n">
         <v>2</v>
@@ -10338,17 +10523,17 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
       <c r="B8" s="63" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C8" s="69" t="n">
         <v>2</v>
@@ -10358,17 +10543,17 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
       <c r="B9" s="63" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C9" s="69" t="n">
         <v>2</v>
@@ -10378,17 +10563,17 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
       <c r="B10" s="63" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C10" s="69" t="n">
         <v>2</v>
@@ -10398,17 +10583,17 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
       <c r="B11" s="63" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C11" s="70" t="n">
         <v>3</v>
@@ -10418,17 +10603,17 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45"/>
       <c r="B12" s="63" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C12" s="70" t="n">
         <v>3</v>
@@ -10438,19 +10623,19 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
-        <v>429</v>
+      <c r="A13" s="45" t="s">
+        <v>431</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C13" s="69" t="n">
         <v>2</v>
@@ -10460,17 +10645,17 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="81" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="45"/>
       <c r="B14" s="63" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C14" s="69" t="n">
         <v>2</v>
@@ -10480,17 +10665,17 @@
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="81" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="45"/>
       <c r="B15" s="63" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C15" s="70" t="n">
         <v>3</v>
@@ -10500,19 +10685,19 @@
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="81" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
-        <v>436</v>
+      <c r="A16" s="45" t="s">
+        <v>438</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C16" s="69" t="n">
         <v>2</v>
@@ -10522,17 +10707,17 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="81" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="45"/>
       <c r="B17" s="63" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C17" s="79" t="n">
         <v>2</v>
@@ -10540,14 +10725,14 @@
       <c r="D17" s="58" t="n">
         <v>320</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="37"/>
+        <v>442</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10557,14 +10742,14 @@
     <mergeCell ref="A16:A17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G17" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G17" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -10573,7 +10758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10593,11 +10778,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="35.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="35.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="88" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="88" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="84" t="s">
         <v>20</v>
       </c>
@@ -10630,11 +10815,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>441</v>
+      <c r="A2" s="45" t="s">
+        <v>443</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C2" s="89" t="n">
         <v>1</v>
@@ -10644,17 +10829,17 @@
       </c>
       <c r="E2" s="91"/>
       <c r="F2" s="92" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
       <c r="J2" s="94"/>
     </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
       <c r="B3" s="63" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -10664,17 +10849,17 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="63" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>2</v>
@@ -10684,17 +10869,17 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
       <c r="B5" s="63" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>2</v>
@@ -10704,19 +10889,19 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>448</v>
+      <c r="A6" s="45" t="s">
+        <v>450</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>2</v>
@@ -10726,17 +10911,17 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45"/>
       <c r="B7" s="63" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C7" s="69" t="n">
         <v>2</v>
@@ -10746,19 +10931,19 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
-        <v>452</v>
+      <c r="A8" s="45" t="s">
+        <v>454</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C8" s="69" t="n">
         <v>2</v>
@@ -10768,17 +10953,17 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
       <c r="B9" s="63" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C9" s="69" t="n">
         <v>2</v>
@@ -10788,19 +10973,19 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
       <c r="B10" s="63" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C10" s="69" t="n">
         <v>2</v>
@@ -10810,17 +10995,17 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
       <c r="B11" s="63" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C11" s="69" t="n">
         <v>2</v>
@@ -10828,19 +11013,19 @@
       <c r="D11" s="27"/>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
-        <v>461</v>
+      <c r="A12" s="45" t="s">
+        <v>463</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C12" s="67" t="n">
         <v>1</v>
@@ -10850,17 +11035,17 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="45"/>
       <c r="B13" s="63" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C13" s="69" t="n">
         <v>2</v>
@@ -10870,32 +11055,32 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="45"/>
       <c r="B14" s="63" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C14" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="D14" s="34" t="n">
+      <c r="D14" s="35" t="n">
         <v>431</v>
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="82" t="s">
-        <v>467</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="37"/>
+        <v>469</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10905,14 +11090,14 @@
     <mergeCell ref="A12:A14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G14" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G14" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -10921,7 +11106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10939,12 +11124,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="35.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="17.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="30.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="30.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="44" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -10977,31 +11162,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>468</v>
+      <c r="A2" s="45" t="s">
+        <v>470</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C2" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="48" t="n">
+      <c r="D2" s="49" t="n">
         <v>524</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>470</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+        <v>472</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44"/>
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
       <c r="B3" s="63" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C3" s="69" t="n">
         <v>2</v>
@@ -11011,17 +11196,17 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
       <c r="B4" s="63" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>2</v>
@@ -11031,17 +11216,17 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
       <c r="B5" s="63" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>2</v>
@@ -11051,17 +11236,17 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
       <c r="B6" s="63" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C6" s="70" t="n">
         <v>3</v>
@@ -11071,17 +11256,17 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45"/>
       <c r="B7" s="63" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C7" s="70" t="n">
         <v>3</v>
@@ -11091,19 +11276,19 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
-        <v>481</v>
+      <c r="A8" s="45" t="s">
+        <v>483</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -11113,17 +11298,17 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
       <c r="B9" s="63" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -11133,17 +11318,17 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
       <c r="B10" s="63" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>1</v>
@@ -11153,19 +11338,19 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
-        <v>488</v>
+      <c r="A11" s="45" t="s">
+        <v>490</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C11" s="67" t="n">
         <v>1</v>
@@ -11175,17 +11360,17 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45"/>
       <c r="B12" s="63" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C12" s="67" t="n">
         <v>1</v>
@@ -11195,17 +11380,17 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="45"/>
       <c r="B13" s="63" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C13" s="67" t="n">
         <v>1</v>
@@ -11215,17 +11400,17 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="45"/>
       <c r="B14" s="63" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C14" s="67" t="n">
         <v>1</v>
@@ -11235,17 +11420,17 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="45"/>
       <c r="B15" s="63" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C15" s="69" t="n">
         <v>2</v>
@@ -11255,17 +11440,17 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="45"/>
       <c r="B16" s="63" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C16" s="69" t="n">
         <v>2</v>
@@ -11275,17 +11460,17 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="81" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="45"/>
       <c r="B17" s="63" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C17" s="69" t="n">
         <v>2</v>
@@ -11295,32 +11480,32 @@
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="81" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="45"/>
       <c r="B18" s="63" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C18" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="34" t="n">
+      <c r="D18" s="35" t="n">
         <v>285</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="82" t="s">
-        <v>504</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="37"/>
+        <v>506</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11329,14 +11514,14 @@
     <mergeCell ref="A11:A18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G18" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G18" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
